--- a/week-2/StringsActivities/heroSheet.xlsx
+++ b/week-2/StringsActivities/heroSheet.xlsx
@@ -14,7 +14,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>hero alias</t>
+  </si>
+  <si>
+    <t>hero name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>Clark Kent</t>
+  </si>
+  <si>
+    <t>The Fortress of Solitude_x000D_</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Bruce Wayne</t>
+  </si>
+  <si>
+    <t>The Batcave_x000D_</t>
+  </si>
+  <si>
+    <t>Wonderwoman</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Themyscira_x000D_</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,14 +388,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/week-2/StringsActivities/heroSheet.xlsx
+++ b/week-2/StringsActivities/heroSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="20" windowWidth="13380" windowHeight="4840"/>
+    <workbookView xWindow="396" yWindow="24" windowWidth="13380" windowHeight="4836"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,13 +390,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,7 +405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -418,7 +416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -429,7 +427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
